--- a/CB歷程.xlsx
+++ b/CB歷程.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,10 +26,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="微軟正黑體"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
     <font>
+      <name val="微軟正黑體"/>
       <color rgb="00FF0000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="微軟正黑體"/>
+      <b val="1"/>
+      <color rgb="000000FF"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
@@ -72,16 +84,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,9 +469,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -462,49 +483,63 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>BM</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Ref No.</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Debit</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Credit</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Balance</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="1" t="n"/>
-      <c r="D2" s="1" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="1" t="n"/>
-      <c r="G2" s="1" t="n"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>BM3</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>FeeItem</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr"/>
+      <c r="E2" s="2" t="n">
+        <v>90000</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>90000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -522,40 +557,52 @@
           <t>FeeItem</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr"/>
-      <c r="E3" s="3" t="n">
-        <v>90000</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>90000</v>
-      </c>
-      <c r="G3" s="1" t="n"/>
+      <c r="D3" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="inlineStr"/>
+      <c r="F3" s="3" t="n">
+        <v>89980</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>BM3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>FeeItem</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
+      <c r="D4" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F4" t="n">
+      <c r="E4" s="1" t="inlineStr"/>
+      <c r="F4" s="3" t="n">
+        <v>89950</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Sub-total Balance</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n">
         <v>89950</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/CB歷程.xlsx
+++ b/CB歷程.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CB歷程" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credit Balance Report" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,22 +26,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="微軟正黑體"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
     <font>
-      <name val="微軟正黑體"/>
-      <color rgb="00FF0000"/>
-      <sz val="12"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <name val="微軟正黑體"/>
+      <name val="Arial"/>
       <b val="1"/>
-      <color rgb="000000FF"/>
-      <sz val="12"/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="3">
@@ -53,18 +46,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000b0f0"/>
-        <bgColor rgb="0000b0f0"/>
+        <fgColor rgb="00FFC000"/>
+        <bgColor rgb="00FFC000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00FFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="00FFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="00FFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00FFFFFF"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -84,24 +91,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,128 +491,239 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="50" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>BM</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ref No.</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Debit</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Balance</t>
+          <t>SJC2 Construction_Credit Balance_SKB</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Currency: USD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>BM3</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>FeeItem</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr"/>
-      <c r="E2" s="2" t="n">
-        <v>90000</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>90000</v>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>海纜名稱</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>海纜作業</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>記帳段號</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Invoice No.</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>CN no.</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Debit</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>BM3</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>FeeItem</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="inlineStr"/>
-      <c r="F3" s="3" t="n">
-        <v>89980</v>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>SJC2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>SKB-test-billing-no</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>2023-04-17T13:42:45</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>CN02CO-SK2304171342</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>SKB-user-add-test-case</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr"/>
+      <c r="J3" s="4" t="n">
+        <v>200000</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>200000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>BM3</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>FeeItem</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="inlineStr"/>
-      <c r="F4" s="3" t="n">
-        <v>89950</v>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>SJC2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>BM12</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>02CO-SK2304171147</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>2023-04-17T00:00:00</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr"/>
+      <c r="G4" s="3" t="inlineStr"/>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>BM12 Branching Units (100%)-Equipment</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="inlineStr"/>
+      <c r="K4" s="4" t="n">
+        <v>199990</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SJC2</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>BM12</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>02CO-SK2304171147</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>2023-04-17T00:00:00</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>BM12 Branching Units (100%)-Service</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="4" t="n">
+        <v>199980</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>Sub-total Balance</t>
         </is>
       </c>
-      <c r="F5" s="6" t="n">
-        <v>89950</v>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+      <c r="H6" s="7" t="n"/>
+      <c r="I6" s="7" t="n"/>
+      <c r="J6" s="7" t="n"/>
+      <c r="K6" s="8" t="n">
+        <v>199980</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
